--- a/DATA_goal/Junction_Flooding_260.xlsx
+++ b/DATA_goal/Junction_Flooding_260.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,9 +451,9 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -462,14 +462,14 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41692.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.02</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.08</v>
+        <v>3.21</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.8</v>
+        <v>4.68</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>216.97</v>
+        <v>21.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.97</v>
+        <v>4.1</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.95</v>
+        <v>2.69</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.77</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.5</v>
+        <v>4.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41692.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.3</v>
+        <v>4.43</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.99</v>
+        <v>3.6</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.41</v>
+        <v>6.14</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.73</v>
+        <v>1.77</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.64</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>236.47</v>
+        <v>23.65</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.8</v>
+        <v>4.48</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.85</v>
+        <v>2.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.83</v>
+        <v>5.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41692.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.6</v>
+        <v>4.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.7</v>
+        <v>3.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.44</v>
+        <v>6.84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.5</v>
+        <v>1.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.88</v>
+        <v>2.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>259.36</v>
+        <v>25.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.01</v>
+        <v>4.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.84</v>
+        <v>3.28</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.2</v>
+        <v>3.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.11</v>
+        <v>6.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41692.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U5" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41692.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>22.75</v>
+        <v>2.27</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.15</v>
+        <v>2.92</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11.55</v>
+        <v>1.16</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>117.38</v>
+        <v>11.74</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>22.72</v>
+        <v>2.27</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>25.96</v>
+        <v>2.6</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41692.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>29.65</v>
+        <v>2.97</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>40.47</v>
+        <v>4.05</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>155.19</v>
+        <v>15.52</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>29.83</v>
+        <v>2.98</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>36.68</v>
+        <v>3.67</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41692.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>4.3</v>
-      </c>
       <c r="Q8" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>38.51</v>
+        <v>3.85</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41692.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>138</v>
+        <v>13.8</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>26.58</v>
+        <v>2.66</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>17.85</v>
+        <v>1.79</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>31.17</v>
+        <v>3.12</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41692.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W10" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_260.xlsx
+++ b/DATA_goal/Junction_Flooding_260.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,8 +443,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -453,12 +453,12 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,263 +652,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41692.34027777778</v>
+        <v>44941.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="M2" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>1.48</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.26</v>
-      </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.7</v>
+        <v>26.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.1</v>
+        <v>4.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.69</v>
+        <v>3.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.15</v>
+        <v>5.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41692.34722222222</v>
+        <v>44941.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.43</v>
+        <v>5.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.6</v>
+        <v>4.27</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>1.61</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.58</v>
+        <v>6.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41692.35416666666</v>
+        <v>44941.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.86</v>
+        <v>4.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.97</v>
+        <v>3.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.84</v>
+        <v>6.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.49</v>
+        <v>2.35</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.11</v>
@@ -917,777 +917,257 @@
         <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.94</v>
+        <v>24.45</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.21</v>
+        <v>5.96</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41692.36111111111</v>
+        <v>44941.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.19</v>
+        <v>2.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.32</v>
+        <v>5.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.26</v>
+        <v>1.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.15</v>
+        <v>2.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41692.36805555555</v>
+        <v>44941.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.05</v>
+        <v>13.93</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.76</v>
+        <v>10.2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.27</v>
+        <v>30.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.85</v>
+        <v>24.86</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.82</v>
+        <v>10.96</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.92</v>
+        <v>40.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.27</v>
+        <v>16.87</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.55</v>
+        <v>7.44</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.82</v>
+        <v>11.14</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.91</v>
+        <v>12.16</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.96</v>
+        <v>12.7</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.26</v>
+        <v>3.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.82</v>
+        <v>10.9</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.16</v>
+        <v>15.46</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.7</v>
+        <v>9.23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.58</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>11.74</v>
+        <v>158.61</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.27</v>
+        <v>30.4</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.76</v>
+        <v>10.06</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.51</v>
+        <v>20.37</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.8</v>
+        <v>10.89</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.41</v>
+        <v>19.75</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.67</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.6</v>
+        <v>7.92</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.95</v>
+        <v>12.71</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.6</v>
+        <v>36.45</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.42</v>
+        <v>5.64</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41692.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41692.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41692.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41692.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41692.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>48.13</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>198.67</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>43.36</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.62</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_260.xlsx
+++ b/DATA_goal/Junction_Flooding_260.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44941.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>47.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.93</v>
+        <v>39.28</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.88</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.48</v>
+        <v>24.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.16</v>
+        <v>261.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.93</v>
+        <v>29.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.19</v>
+        <v>51.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44941.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.36</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.16</v>
+        <v>51.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.27</v>
+        <v>42.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.3</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.65</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>278.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.26</v>
+        <v>52.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.52</v>
+        <v>35.17</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.54</v>
+        <v>35.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.68</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.6</v>
+        <v>66.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44941.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.56</v>
+        <v>45.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.77</v>
+        <v>37.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.59</v>
+        <v>65.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.37</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.5</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.63</v>
+        <v>46.29</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.1</v>
+        <v>31.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.16</v>
+        <v>31.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.11</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.96</v>
+        <v>59.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44941.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.57</v>
+        <v>55.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_260.xlsx
+++ b/DATA_goal/Junction_Flooding_260.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.54</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.49</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.28</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.77</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.88</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.83</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.73</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.67</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.85</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.62</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.2</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.64</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.03</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.27</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.94</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.49</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.9</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.39</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44941.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.36</v>
+        <v>17.359</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.072</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>51.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.69</v>
+        <v>42.695</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.9</v>
+        <v>18.903</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>73.01000000000001</v>
+        <v>73.012</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.75</v>
+        <v>12.749</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.19</v>
+        <v>19.193</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.74</v>
+        <v>20.743</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.75</v>
+        <v>21.746</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.04</v>
+        <v>6.039</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.65</v>
+        <v>26.655</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.89</v>
+        <v>15.891</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.688</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.285</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.82</v>
+        <v>278.821</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.58</v>
+        <v>52.584</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.17</v>
+        <v>35.168</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.67</v>
+        <v>18.672</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.31</v>
+        <v>2.307</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.39</v>
+        <v>35.393</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.71</v>
+        <v>13.706</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>16.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.68</v>
+        <v>21.677</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>66.05</v>
+        <v>66.04600000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.725</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44941.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.43</v>
+        <v>15.428</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.482</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.57</v>
+        <v>45.565</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>37.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.64</v>
+        <v>16.636</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>65.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.29</v>
+        <v>11.293</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.92</v>
+        <v>16.923</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.37</v>
+        <v>18.367</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.24</v>
+        <v>19.245</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.5</v>
+        <v>23.498</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>13.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.123</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.951</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.48</v>
+        <v>244.484</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.29</v>
+        <v>46.294</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.03</v>
+        <v>31.025</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.5</v>
+        <v>16.498</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.04</v>
+        <v>2.041</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.64</v>
+        <v>31.642</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.02</v>
+        <v>12.023</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.11</v>
+        <v>14.115</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.22</v>
+        <v>19.218</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.58</v>
+        <v>59.582</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.57</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.09</v>
+        <v>19.091</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44941.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>36.45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_260.xlsx
+++ b/DATA_goal/Junction_Flooding_260.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,82 +967,82 @@
         <v>44941.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.28</v>
+        <v>5.285</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.63</v>
+        <v>3.633</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.18</v>
+        <v>11.182</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.26</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>4.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.26</v>
+        <v>22.263</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.77</v>
+        <v>2.769</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.09</v>
+        <v>4.086</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.58</v>
+        <v>4.583</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.67</v>
+        <v>4.675</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.338</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.86</v>
+        <v>5.863</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.66</v>
+        <v>3.661</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.68</v>
+        <v>55.675</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.86</v>
+        <v>11.862</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.82</v>
+        <v>7.817</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.22</v>
+        <v>4.219</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.435</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>10.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>3.11</v>
@@ -1051,19 +1051,123 @@
         <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.74</v>
+        <v>4.739</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>20.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.06</v>
+        <v>2.064</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44941.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.61</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_260.xlsx
+++ b/DATA_goal/Junction_Flooding_260.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,82 +967,82 @@
         <v>44941.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.285</v>
+        <v>5.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.633</v>
+        <v>3.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.182</v>
+        <v>11.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.255000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>4.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.263</v>
+        <v>22.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.399</v>
+        <v>6.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.769</v>
+        <v>2.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.086</v>
+        <v>4.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.583</v>
+        <v>4.58</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.675</v>
+        <v>4.67</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.338</v>
+        <v>1.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.863</v>
+        <v>5.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.661</v>
+        <v>3.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.675</v>
+        <v>55.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.862</v>
+        <v>11.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.817</v>
+        <v>7.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.219</v>
+        <v>4.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.435</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>10.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>3.11</v>
@@ -1051,123 +1051,19 @@
         <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.739</v>
+        <v>4.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>20.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.064</v>
+        <v>2.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.775</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44941.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>36.45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
